--- a/classes+unitTests/stockAnalysis/Book1.xlsx
+++ b/classes+unitTests/stockAnalysis/Book1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimul\Documents\python\classes+unitTests\stockAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55FF6E1-5F1D-4005-89A4-FAD5CE440E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F12BDE-F9C3-4C90-97A6-19AA0E95D5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{59D6CB83-70A6-4510-8AD0-4832DF31627A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>Symbol</t>
   </si>
@@ -54,9 +54,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,10 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,178 +399,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DBB267-C6CA-49C5-85D9-186A6AA4B0FB}">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87510DCF-C091-4DC8-B73D-768B648EB4C7}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f>H7</f>
-        <v>Symbol</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>I7</f>
-        <v>Date</v>
-      </c>
-      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <v>41244</v>
       </c>
-      <c r="C2" s="2">
-        <v>40941</v>
-      </c>
-      <c r="D2" s="2">
-        <v>40942</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>J7</f>
-        <v>Price</v>
-      </c>
-      <c r="B3">
+      <c r="C2">
         <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41245</v>
       </c>
       <c r="C3">
         <v>95</v>
       </c>
-      <c r="D3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41246</v>
+      </c>
+      <c r="C4">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41247</v>
+      </c>
+      <c r="C5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
         <v>41244</v>
       </c>
-      <c r="J8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="H9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="2">
-        <v>40941</v>
-      </c>
-      <c r="J9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="2">
-        <v>40942</v>
-      </c>
-      <c r="J10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
+      <c r="C6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41245</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>41246</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>41247</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/classes+unitTests/stockAnalysis/Book1.xlsx
+++ b/classes+unitTests/stockAnalysis/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zimul\Documents\python\classes+unitTests\stockAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F12BDE-F9C3-4C90-97A6-19AA0E95D5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366EAE8C-8B50-4586-87B3-6F03D1DD792D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{59D6CB83-70A6-4510-8AD0-4832DF31627A}"/>
+    <workbookView xWindow="4725" yWindow="225" windowWidth="21600" windowHeight="11835" xr2:uid="{59D6CB83-70A6-4510-8AD0-4832DF31627A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>Symbol</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>goo</t>
+  </si>
+  <si>
+    <t>se</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87510DCF-C091-4DC8-B73D-768B648EB4C7}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,6 +513,50 @@
         <v>80</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>41244</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>41245</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>41246</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>41247</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
